--- a/Paper Rebuttal/Adjustments_12_2019/Overlaps/angle_distance_table_novel.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Overlaps/angle_distance_table_novel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Animal</t>
   </si>
@@ -38,6 +38,9 @@
   <si>
     <t>Number_events</t>
   </si>
+  <si>
+    <t>Theta_deg</t>
+  </si>
 </sst>
 </file>
 
@@ -57,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -69,16 +72,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,7 +101,7 @@
     <col min="1" max="1" width="7.42578125" customWidth="true"/>
     <col min="2" max="2" width="6.42578125" customWidth="true"/>
     <col min="3" max="3" width="4.5703125" customWidth="true"/>
-    <col min="4" max="4" width="11.85546875" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="10.85546875" customWidth="true"/>
     <col min="6" max="6" width="15.5703125" customWidth="true"/>
     <col min="7" max="7" width="13.85546875" customWidth="true"/>
@@ -102,54 +109,63 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>92.756399999999999</v>
+      </c>
       <c r="E2">
-        <v>0</v>
+        <v>50.5</v>
+      </c>
+      <c r="F2">
+        <v>83.251417405351191</v>
+      </c>
+      <c r="G2">
+        <v>86.20187700972636</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -163,198 +179,270 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>131.029</v>
+        <v>113.69066666666669</v>
       </c>
       <c r="E4">
-        <v>44.5</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="F4">
-        <v>4.9714786532781448</v>
+        <v>98.685832823156517</v>
       </c>
       <c r="G4">
-        <v>46.848215547659876</v>
+        <v>101.77133682918783</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>73.414000000000001</v>
+      </c>
       <c r="E5">
-        <v>0</v>
+        <v>27.300000000000001</v>
+      </c>
+      <c r="F5">
+        <v>4.5103381139948997</v>
+      </c>
+      <c r="G5">
+        <v>48.442548433539237</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6">
+        <v>96.887999999999991</v>
+      </c>
       <c r="E6">
-        <v>0</v>
+        <v>53.300000000000004</v>
+      </c>
+      <c r="F6">
+        <v>141.92088394595066</v>
+      </c>
+      <c r="G6">
+        <v>20.456043116888406</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
+      <c r="D7">
+        <v>107.12833333333334</v>
+      </c>
       <c r="E7">
-        <v>0</v>
+        <v>65.299999999999997</v>
+      </c>
+      <c r="F7">
+        <v>51.790354314292934</v>
+      </c>
+      <c r="G7">
+        <v>37.731726703134079</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
+      <c r="D8">
+        <v>90.524000000000001</v>
+      </c>
       <c r="E8">
-        <v>0</v>
+        <v>47.099999999999994</v>
+      </c>
+      <c r="F8">
+        <v>54.697737613177381</v>
+      </c>
+      <c r="G8">
+        <v>69.399934438009296</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
+      <c r="D9">
+        <v>138.233</v>
+      </c>
       <c r="E9">
-        <v>0</v>
+        <v>69.799999999999997</v>
+      </c>
+      <c r="F9">
+        <v>195.046348594379</v>
+      </c>
+      <c r="G9">
+        <v>14.497620494412187</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
+      <c r="D10">
+        <v>105.35416666666669</v>
+      </c>
       <c r="E10">
-        <v>0</v>
+        <v>64.600000000000009</v>
+      </c>
+      <c r="F10">
+        <v>164.31358859759069</v>
+      </c>
+      <c r="G10">
+        <v>58.281459349194911</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>176.10400000000001</v>
+        <v>116.92149999999999</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>71.799999999999997</v>
       </c>
       <c r="F11">
-        <v>41.450694807204371</v>
+        <v>38.62711275526344</v>
       </c>
       <c r="G11">
-        <v>35.276446816537515</v>
+        <v>86.150175908011278</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
+      <c r="D12">
+        <v>100.60625</v>
+      </c>
       <c r="E12">
-        <v>0</v>
+        <v>56.699999999999996</v>
+      </c>
+      <c r="F12">
+        <v>33.163339005947236</v>
+      </c>
+      <c r="G12">
+        <v>132.60795170586087</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
+      <c r="D13">
+        <v>81.957499999999996</v>
+      </c>
       <c r="E13">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>77.224104825188263</v>
+      </c>
+      <c r="G13">
+        <v>72.620335923325044</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -368,590 +456,773 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
+      <c r="D15">
+        <v>157.40600000000001</v>
+      </c>
       <c r="E15">
-        <v>0</v>
+        <v>80.800000000000011</v>
+      </c>
+      <c r="F15">
+        <v>107.88710998075715</v>
+      </c>
+      <c r="G15">
+        <v>130.00634599895508</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
+      <c r="D16">
+        <v>149.39249999999998</v>
+      </c>
       <c r="E16">
-        <v>0</v>
+        <v>91.5</v>
+      </c>
+      <c r="F16">
+        <v>174.55921493023942</v>
+      </c>
+      <c r="G16">
+        <v>55.280845259014299</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17">
-        <v>180</v>
+        <v>150.65975</v>
       </c>
       <c r="E17">
-        <v>96.700000000000003</v>
+        <v>98.200000000000003</v>
       </c>
       <c r="F17">
-        <v>2.8829325347638406</v>
+        <v>58.660313409091991</v>
       </c>
       <c r="G17">
-        <v>7.4202425836356856</v>
+        <v>35.351154711356578</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>151.37</v>
+        <v>92.933000000000007</v>
       </c>
       <c r="E18">
-        <v>52.600000000000001</v>
+        <v>48.399999999999999</v>
       </c>
       <c r="F18">
-        <v>14.459643840703638</v>
+        <v>19.022233921839963</v>
       </c>
       <c r="G18">
-        <v>9.9927974061320946</v>
+        <v>128.86222190927774</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19">
-        <v>150.69499999999999</v>
-      </c>
       <c r="E19">
-        <v>54.100000000000001</v>
-      </c>
-      <c r="F19">
-        <v>23.144859040400341</v>
-      </c>
-      <c r="G19">
-        <v>19.949862154912243</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
+      <c r="D20">
+        <v>48.858000000000004</v>
+      </c>
       <c r="E20">
-        <v>0</v>
+        <v>15.4</v>
+      </c>
+      <c r="F20">
+        <v>17.743474067124421</v>
+      </c>
+      <c r="G20">
+        <v>24.252356069607735</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
+      <c r="D21">
+        <v>96.059999999999988</v>
+      </c>
       <c r="E21">
-        <v>0</v>
+        <v>52.200000000000003</v>
+      </c>
+      <c r="F21">
+        <v>115.52144389679346</v>
+      </c>
+      <c r="G21">
+        <v>99.886780406618456</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
+      <c r="D22">
+        <v>93.366</v>
+      </c>
       <c r="E22">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>14.180992569166545</v>
       </c>
       <c r="G22">
-        <v>11.706220568569519</v>
+        <v>73.634103844941166</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23">
-        <v>131.69400000000002</v>
+        <v>126.23366666666668</v>
       </c>
       <c r="E23">
-        <v>61.299999999999997</v>
+        <v>82.5</v>
       </c>
       <c r="F23">
-        <v>17.054227207485646</v>
+        <v>82.879430499973878</v>
       </c>
       <c r="G23">
-        <v>55.462622145292045</v>
+        <v>191.68679641801106</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
+      <c r="D24">
+        <v>93.098833333333346</v>
+      </c>
       <c r="E24">
-        <v>0</v>
+        <v>45.100000000000001</v>
+      </c>
+      <c r="F24">
+        <v>41.895759074905975</v>
+      </c>
+      <c r="G24">
+        <v>135.41074759528408</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25">
-        <v>180</v>
+        <v>96.69516666666668</v>
       </c>
       <c r="E25">
-        <v>96</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="F25">
-        <v>1.8725650856512097</v>
+        <v>66.167411395503507</v>
       </c>
       <c r="G25">
-        <v>8.2120703845011285</v>
+        <v>51.249999967936205</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26">
-        <v>111.85700000000001</v>
+        <v>66.894555555555542</v>
       </c>
       <c r="E26">
-        <v>50.299999999999997</v>
+        <v>6.7000000000000002</v>
       </c>
       <c r="F26">
-        <v>25.542797419233505</v>
+        <v>71.525505940188893</v>
       </c>
       <c r="G26">
-        <v>3.8866566609362336</v>
+        <v>37.128761035078973</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
+      <c r="D27">
+        <v>69.00366666666666</v>
+      </c>
       <c r="E27">
-        <v>0</v>
+        <v>8.4000000000000004</v>
+      </c>
+      <c r="F27">
+        <v>83.801237461030368</v>
+      </c>
+      <c r="G27">
+        <v>107.88710998075715</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28">
-        <v>177.51900000000001</v>
+        <v>118.6997857142857</v>
       </c>
       <c r="E28">
-        <v>88.099999999999994</v>
+        <v>96.200000000000003</v>
       </c>
       <c r="F28">
-        <v>58.012860643136747</v>
+        <v>54.022552869485146</v>
       </c>
       <c r="G28">
-        <v>74.303914432551949</v>
+        <v>88.402127845247634</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
+      <c r="D29">
+        <v>96.090500000000006</v>
+      </c>
       <c r="E29">
-        <v>0</v>
+        <v>51.5</v>
+      </c>
+      <c r="F29">
+        <v>29.991230292587069</v>
+      </c>
+      <c r="G29">
+        <v>16.374452682198218</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
+      <c r="D30">
+        <v>96.522636363636352</v>
+      </c>
       <c r="E30">
-        <v>0</v>
+        <v>57.799999999999997</v>
+      </c>
+      <c r="F30">
+        <v>83.875278837092381</v>
+      </c>
+      <c r="G30">
+        <v>51.427946682713262</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
+      <c r="D31">
+        <v>129.83814285714286</v>
+      </c>
       <c r="E31">
-        <v>0</v>
+        <v>94.899999999999991</v>
+      </c>
+      <c r="F31">
+        <v>37.088650555122591</v>
+      </c>
+      <c r="G31">
+        <v>39.153814628973223</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
+      <c r="D32">
+        <v>6.7155000000000005</v>
+      </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="F32">
+        <v>103.1074656564914</v>
+      </c>
+      <c r="G32">
+        <v>148.1991469698176</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
+      <c r="D33">
+        <v>125.5682</v>
+      </c>
       <c r="E33">
-        <v>0</v>
+        <v>88.900000000000006</v>
+      </c>
+      <c r="F33">
+        <v>72.365009500448508</v>
+      </c>
+      <c r="G33">
+        <v>90.720596338428052</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
+      <c r="D34">
+        <v>89.927166666666665</v>
+      </c>
       <c r="E34">
-        <v>0</v>
+        <v>40.600000000000001</v>
+      </c>
+      <c r="F34">
+        <v>46.491771662441849</v>
+      </c>
+      <c r="G34">
+        <v>45.343524808230455</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
+      <c r="D35">
+        <v>56.959499999999998</v>
+      </c>
       <c r="E35">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>32.484469700509457</v>
+      </c>
+      <c r="G35">
+        <v>71.899419940383495</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
+      <c r="D36">
+        <v>50.013750000000002</v>
+      </c>
       <c r="E36">
-        <v>0</v>
+        <v>4.2999999999999998</v>
+      </c>
+      <c r="F36">
+        <v>108.02967336797023</v>
+      </c>
+      <c r="G36">
+        <v>34.225405290800779</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
+      <c r="D37">
+        <v>64.710666666666668</v>
+      </c>
       <c r="E37">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F37">
+        <v>124.05279883984895</v>
+      </c>
+      <c r="G37">
+        <v>27.844209451876974</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
+      <c r="D38">
+        <v>88.164500000000004</v>
+      </c>
       <c r="E38">
-        <v>0</v>
+        <v>42.399999999999999</v>
+      </c>
+      <c r="F38">
+        <v>28.40341306233266</v>
+      </c>
+      <c r="G38">
+        <v>18.641767667756106</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
+      <c r="D39">
+        <v>80.455199999999991</v>
+      </c>
       <c r="E39">
-        <v>0</v>
+        <v>29.199999999999999</v>
+      </c>
+      <c r="F39">
+        <v>75.785634522645594</v>
+      </c>
+      <c r="G39">
+        <v>33.032111649121141</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
+      <c r="D40">
+        <v>113.82588888888888</v>
+      </c>
       <c r="E40">
-        <v>0</v>
+        <v>83.700000000000003</v>
+      </c>
+      <c r="F40">
+        <v>50.096043755969397</v>
+      </c>
+      <c r="G40">
+        <v>17.131902988284761</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41">
-        <v>179.798</v>
+        <v>97.457352941176481</v>
       </c>
       <c r="E41">
-        <v>94.699999999999989</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="F41">
-        <v>29.241238003887634</v>
+        <v>49.677082241210584</v>
       </c>
       <c r="G41">
-        <v>3.1043839968664204</v>
+        <v>34.984375083742734</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
+      <c r="D42">
+        <v>107.62350000000001</v>
+      </c>
       <c r="E42">
-        <v>0</v>
+        <v>75.5</v>
+      </c>
+      <c r="F42">
+        <v>62.650812154598441</v>
+      </c>
+      <c r="G42">
+        <v>58.493910954626855</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
+      <c r="D43">
+        <v>142.09757142857143</v>
+      </c>
       <c r="E43">
-        <v>0</v>
+        <v>98.400000000000006</v>
+      </c>
+      <c r="F43">
+        <v>43.767034398048885</v>
+      </c>
+      <c r="G43">
+        <v>67.334214928222025</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
+      <c r="D44">
+        <v>162.75800000000001</v>
+      </c>
       <c r="E44">
-        <v>0</v>
+        <v>86.200000000000003</v>
+      </c>
+      <c r="F44">
+        <v>34.01850378837964</v>
+      </c>
+      <c r="G44">
+        <v>4.4095918178443894</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
